--- a/Instances/G0044214_NonStationary_b2_fe25_en_rk25_ll2_l20_HTrue_c0.xlsx
+++ b/Instances/G0044214_NonStationary_b2_fe25_en_rk25_ll2_l20_HTrue_c0.xlsx
@@ -489,7 +489,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -521,7 +521,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -986,7 +986,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1004,7 +1004,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="n">
-        <v>9.119739850362143</v>
+        <v>10.55082783699036</v>
       </c>
       <c r="I2" t="n">
         <v>80</v>
@@ -1036,7 +1036,7 @@
         <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>3.538880825042725</v>
+        <v>4.306586790084839</v>
       </c>
       <c r="I3" t="n">
         <v>140</v>
@@ -1050,7 +1050,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>50</v>
       </c>
       <c r="H4" t="n">
-        <v>6.367037892341614</v>
+        <v>7.326535320281982</v>
       </c>
       <c r="I4" t="n">
         <v>120</v>
@@ -1082,7 +1082,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>11.95820665359497</v>
+        <v>15.56025795936585</v>
       </c>
       <c r="I5" t="n">
         <v>60</v>
@@ -1146,7 +1146,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1532,16 +1532,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1567,16 +1567,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1602,16 +1602,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1637,16 +1637,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="C10" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D10" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E10" t="n">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1672,16 +1672,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C11" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D11" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E11" t="n">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1707,16 +1707,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="C12" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D12" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E12" t="n">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1742,16 +1742,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E13" t="n">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1777,16 +1777,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C14" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D14" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E14" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D15" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E15" t="n">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1847,16 +1847,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C16" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D16" t="n">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="E16" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1874,111 +1874,6 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>101</v>
-      </c>
-      <c r="C17" t="n">
-        <v>32</v>
-      </c>
-      <c r="D17" t="n">
-        <v>39</v>
-      </c>
-      <c r="E17" t="n">
-        <v>48</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>43</v>
-      </c>
-      <c r="C18" t="n">
-        <v>27</v>
-      </c>
-      <c r="D18" t="n">
-        <v>53</v>
-      </c>
-      <c r="E18" t="n">
-        <v>74</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>76</v>
-      </c>
-      <c r="C19" t="n">
-        <v>40</v>
-      </c>
-      <c r="D19" t="n">
-        <v>27</v>
-      </c>
-      <c r="E19" t="n">
-        <v>116</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1993,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2178,34 +2073,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2213,34 +2108,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
       <c r="D7" t="n">
-        <v>-0</v>
+        <v>6.375</v>
       </c>
       <c r="E7" t="n">
-        <v>-0</v>
+        <v>12.5625</v>
       </c>
       <c r="F7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2248,34 +2143,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0</v>
+        <v>15.234375</v>
       </c>
       <c r="C8" t="n">
-        <v>-0</v>
+        <v>8.203125</v>
       </c>
       <c r="D8" t="n">
-        <v>-0</v>
+        <v>14.296875</v>
       </c>
       <c r="E8" t="n">
-        <v>-0</v>
+        <v>13.828125</v>
       </c>
       <c r="F8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2283,16 +2178,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>24.36328125</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2.70703125</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>14.02734375</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>18.94921875</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -2318,16 +2213,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.1875</v>
+        <v>17.431640625</v>
       </c>
       <c r="C10" t="n">
-        <v>4.875</v>
+        <v>13.6962890625</v>
       </c>
       <c r="D10" t="n">
-        <v>10.5</v>
+        <v>10.2099609375</v>
       </c>
       <c r="E10" t="n">
-        <v>21.9375</v>
+        <v>39.84375</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2353,16 +2248,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8.203125</v>
+        <v>9.990234375</v>
       </c>
       <c r="C11" t="n">
-        <v>8.671875</v>
+        <v>5.994140625</v>
       </c>
       <c r="D11" t="n">
-        <v>11.484375</v>
+        <v>6.9931640625</v>
       </c>
       <c r="E11" t="n">
-        <v>36.328125</v>
+        <v>23.47705078125</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -2388,16 +2283,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.3984375</v>
+        <v>27.24334716796875</v>
       </c>
       <c r="C12" t="n">
-        <v>4.4296875</v>
+        <v>5.99853515625</v>
       </c>
       <c r="D12" t="n">
-        <v>3.9375</v>
+        <v>12.996826171875</v>
       </c>
       <c r="E12" t="n">
-        <v>26.82421875</v>
+        <v>18.995361328125</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -2423,16 +2318,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>27.1435546875</v>
+        <v>1.9998779296875</v>
       </c>
       <c r="C13" t="n">
-        <v>4.98046875</v>
+        <v>2.249862670898438</v>
       </c>
       <c r="D13" t="n">
-        <v>10.95703125</v>
+        <v>13.24919128417969</v>
       </c>
       <c r="E13" t="n">
-        <v>17.9296875</v>
+        <v>26.99835205078125</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -2458,16 +2353,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>19.98046875</v>
+        <v>20.74968338012695</v>
       </c>
       <c r="C14" t="n">
-        <v>5.49462890625</v>
+        <v>9.499855041503906</v>
       </c>
       <c r="D14" t="n">
-        <v>18.731689453125</v>
+        <v>19.74969863891602</v>
       </c>
       <c r="E14" t="n">
-        <v>15.984375</v>
+        <v>21.24967575073242</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -2493,16 +2388,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>25.24383544921875</v>
+        <v>0.9999961853027344</v>
       </c>
       <c r="C15" t="n">
-        <v>5.4986572265625</v>
+        <v>7.749970436096191</v>
       </c>
       <c r="D15" t="n">
-        <v>10.4974365234375</v>
+        <v>6.499975204467773</v>
       </c>
       <c r="E15" t="n">
-        <v>19.9951171875</v>
+        <v>38.24985408782959</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -2528,16 +2423,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>18.99884033203125</v>
+        <v>19.24998164176941</v>
       </c>
       <c r="C16" t="n">
-        <v>4.99969482421875</v>
+        <v>7.749992609024048</v>
       </c>
       <c r="D16" t="n">
-        <v>18.74885559082031</v>
+        <v>5.49999475479126</v>
       </c>
       <c r="E16" t="n">
-        <v>16.74897766113281</v>
+        <v>19.24998164176941</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -2555,111 +2450,6 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>25.24961471557617</v>
-      </c>
-      <c r="C17" t="n">
-        <v>7.9998779296875</v>
-      </c>
-      <c r="D17" t="n">
-        <v>9.749851226806641</v>
-      </c>
-      <c r="E17" t="n">
-        <v>11.99981689453125</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>10.74995899200439</v>
-      </c>
-      <c r="C18" t="n">
-        <v>6.749974250793457</v>
-      </c>
-      <c r="D18" t="n">
-        <v>13.24994945526123</v>
-      </c>
-      <c r="E18" t="n">
-        <v>18.49992942810059</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>18.99998188018799</v>
-      </c>
-      <c r="C19" t="n">
-        <v>9.999990463256836</v>
-      </c>
-      <c r="D19" t="n">
-        <v>6.749993562698364</v>
-      </c>
-      <c r="E19" t="n">
-        <v>28.99997234344482</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
         <v>0</v>
       </c>
     </row>
